--- a/biology/Botanique/Vermouth/Vermouth.xlsx
+++ b/biology/Botanique/Vermouth/Vermouth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vermouth est un vin aromatisé ou apéritif à base de vin (ABV) et fortifié par adjonction de mistelle, d'eau-de-vie ou de liqueur. Il titre entre 14,5° et 22°.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dénomination « vermouth » serait due à Antonio Benedetto Carpano qui élabore la recette dans une distillerie de la Piazza Castello à Turin (Italie) en 1786[1], d'après une recette d'apéritif allemand à base de vin et de Wermut (vermouth ou absinthe en allemand), « vin liquoreux aromatisé de plantes amères et toniques » (attesté depuis 1783) »[2]. Il mélange un muscat cannelli avec des épices secrètes et baptise la boisson « vermouth »[1]. 
-Ce vin liquoreux faiblement alcoolisé devient l'apéritif turinois par excellence, on parlait même de « l'heure du vermouth »[1]. Le roi Victor-Emmanuel II le consacre boisson officielle de la cour de la Maison de Savoie[3]. La région du Piémont serait donc la zone historique de production. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dénomination « vermouth » serait due à Antonio Benedetto Carpano qui élabore la recette dans une distillerie de la Piazza Castello à Turin (Italie) en 1786, d'après une recette d'apéritif allemand à base de vin et de Wermut (vermouth ou absinthe en allemand), « vin liquoreux aromatisé de plantes amères et toniques » (attesté depuis 1783) ». Il mélange un muscat cannelli avec des épices secrètes et baptise la boisson « vermouth ». 
+Ce vin liquoreux faiblement alcoolisé devient l'apéritif turinois par excellence, on parlait même de « l'heure du vermouth ». Le roi Victor-Emmanuel II le consacre boisson officielle de la cour de la Maison de Savoie. La région du Piémont serait donc la zone historique de production. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vermouth s'est d'abord diffusé en Europe, puis aux États-Unis et dans le monde. Il a fait la fortune des entreprises italiennes comme Martini, Cinzano ou Gancia[1]. Le vermouth devient populaire au début du XIXe siècle et très populaire jusqu'aux années 1940-1950[4]. 
-En France, il existe plusieurs régions de production, comme Chambéry par son influence savoyarde (duché de Savoie) et toute la région qui va de Marseille à Béziers[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vermouth s'est d'abord diffusé en Europe, puis aux États-Unis et dans le monde. Il a fait la fortune des entreprises italiennes comme Martini, Cinzano ou Gancia. Le vermouth devient populaire au début du XIXe siècle et très populaire jusqu'aux années 1940-1950. 
+En France, il existe plusieurs régions de production, comme Chambéry par son influence savoyarde (duché de Savoie) et toute la région qui va de Marseille à Béziers. 
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Caractéristiques aromatiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le vermouth domine la saveur qui est apportée par l'armoise, qui est en fait l'absinthe (la petite et la grande absinthe). Le vermouth possède une certaine amertume.
 </t>
@@ -608,13 +626,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Par teneur en sucre
-Les vermouths sont classés en différentes familles en fonction de leur teneur en sucre par litre : 
+          <t>Par teneur en sucre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les vermouths sont classés en différentes familles en fonction de leur teneur en sucre par litre : 
 extra dry ou extra secco (extra sec) : inférieur à 30 g/l ;
 dry ou secco (sec) : moins de 50 g/l ;
-dolce (doux) : au moins 130 g/l[1].
-Par origine
-Vermouths italiens de la région de Turin : vins additionnés de mistelles provenant des plaines méridionales d’Italie ; doux et de couleur rouge, dorée ou tuilée
+dolce (doux) : au moins 130 g/l.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vermouth</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de vermouths</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Par origine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vermouths italiens de la région de Turin : vins additionnés de mistelles provenant des plaines méridionales d’Italie ; doux et de couleur rouge, dorée ou tuilée
 Vermouths espagnols :
 de Barcelone : Perucchi
 du pays Basque : Yzaguirre
@@ -622,45 +679,82 @@
 de Marseillan (Noilly Prat) et Thuir (Byrrh), à base de vins blancs secs (80 %) avec les cépages bourret, clairette, picpoul ; secs et couleur dorée
 Lillet : vermouth bordelais
 Vin d'épines (par exemple Veine d'épine noire)
-Vermouth savoyard : provient de Chambéry (Savoie) et préparé à base de vins de Savoie et de plus de 30 plantes alpines et aromates, en particulier du genre artemisia[5] (génépi).
+Vermouth savoyard : provient de Chambéry (Savoie) et préparé à base de vins de Savoie et de plus de 30 plantes alpines et aromates, en particulier du genre artemisia (génépi).
 Mattei Cap Corse : vermouth corse à base de mistelles de corse, de quinquina et de nombreuses plantes exotiques.
 Vermouths canadiens et australiens : pour les cocktails ; cépage vitis labrusca.
 Depuis 2012, émergence de vermouths australiens produits à base de vins fins (syrah, viognier, cabernet, sangiovese) par des vignerons et parfois avec des plantes indigènes.
-Par couleur de robe
-Selon les épices et le sucre, il peut être :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vermouth</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Types de vermouths</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Par couleur de robe</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les épices et le sucre, il peut être :
 bianco (blanc) : goût doux aux tonalités de vanille et d'épices ;
 rosso (rouge) : goût doux, légèrement amer ;
-rosé : parfum relevé par des notes de cannelle et de clou de girofle[1].
+rosé : parfum relevé par des notes de cannelle et de clou de girofle.
 Le vermouth rouge se réfère quelquefois aux vermouths italiens et le blanc à ceux français ; toutefois, cette affirmation est à nuancer car tous les vermouths italiens ne sont pas rouges et tous les vermouths blancs ne sont pas français. Les vermouths secs doivent être réfrigérés et peuvent être conservés environ six mois. Les autres peuvent généralement se conserver une année s'ils sont stockés dans un endroit sec et frais.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Vermouth</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vermouth</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Plantes aromatiques utilisées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différents vermouths se composent d'alcool, de sucre et de plus de 30 aromates, dont :
 absinthe
@@ -674,7 +768,7 @@
 cardamome
 cascarille
 chardon béni
-colombo[6]
+colombo
 coriandre
 églantier
 génépi
@@ -698,31 +792,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Vermouth</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vermouth</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distributions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Parmi les grandes marques de vermouths, on trouve :
 Martini (Italie, Turin)
@@ -742,69 +838,73 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Vermouth</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vermouth</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Service</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour la verrerie, on utilise soit un tumbler, soit un « old fashion ».
-Le vermouth se boit nature et est utilisé dans de nombreux cocktails. Il permet en effet d'abaisser le titre d'alcool du mélange lorsqu'il est ajouté à un alcool à 40°[4]. La présence de sucre dans le vermouth va adoucir le mélange tout en apportant des notes aromatiques, d'où un cocktail plus complexe[4]. On le retrouve ainsi notamment dans le Negroni, l'Americano, le Manhattan et le Martini[1].   
+Le vermouth se boit nature et est utilisé dans de nombreux cocktails. Il permet en effet d'abaisser le titre d'alcool du mélange lorsqu'il est ajouté à un alcool à 40°. La présence de sucre dans le vermouth va adoucir le mélange tout en apportant des notes aromatiques, d'où un cocktail plus complexe. On le retrouve ainsi notamment dans le Negroni, l'Americano, le Manhattan et le Martini.   
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Vermouth</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vermouth</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermouth</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le premier épisode de la série Amicalement Vôtre, les deux futurs héros se disputent dès leur rencontre à propos du nombre d'olives que doit contenir leur cocktail préféré, le « Créole crème », à base de vermouth. Brett Sinclair le décrit en ces mots : « le meilleur ami de l'homme après la femme et le chien est le Créole crème : une gorgée de rhum blanc, ajoutez un peu de citron, 1/3 de vermouth frais (non glacé) et une petite dose de grenadine. Agitez longuement, ajoutez de la glace pilée et une olive ».
 Dans la série Lucifer, il s'agit du cocktail préféré d'Ève, en clin d'œil au péché originel[réf. nécessaire].
 Le vermouth est également à l'honneur dans les romans et les films de James Bond, où le cocktail fétiche du héros est le Vodka martini « shaken and not stirred » (au shaker et non à la cuillère).
 Dans le film Comment réussir quand on est con et pleurnichard, Antoine Robinaud, voyageur de commerce interprété par Jean Carmet, vend du Vulcani, qu'il proclame le « vermouth des intrépides ».
-On dit qu'Ernest Hemingway était persuadé que la qualité du Martini dépendait du vermouth[1].
+On dit qu'Ernest Hemingway était persuadé que la qualité du Martini dépendait du vermouth.
 </t>
         </is>
       </c>
